--- a/teaching/traditional_assets/database/data/nigeria/nigeria_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.122</v>
+        <v>0.12595</v>
       </c>
       <c r="E2">
-        <v>0.157</v>
+        <v>0.2121</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001604599608629369</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001450350529675973</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>187.16</v>
+        <v>218.6</v>
       </c>
       <c r="L2">
-        <v>0.3619976016401686</v>
+        <v>0.4239556262363756</v>
       </c>
       <c r="M2">
-        <v>73.881</v>
+        <v>48.7</v>
       </c>
       <c r="N2">
-        <v>0.06069750246467303</v>
+        <v>0.03754529334669648</v>
       </c>
       <c r="O2">
-        <v>0.3947478093609746</v>
+        <v>0.2227813357731016</v>
       </c>
       <c r="P2">
-        <v>73.881</v>
+        <v>48.7</v>
       </c>
       <c r="Q2">
-        <v>0.06069750246467303</v>
+        <v>0.03754529334669648</v>
       </c>
       <c r="R2">
-        <v>0.3947478093609746</v>
+        <v>0.2227813357731016</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1256.73</v>
+        <v>2434.33</v>
       </c>
       <c r="V2">
-        <v>1.032476174827473</v>
+        <v>1.876748130444838</v>
       </c>
       <c r="W2">
-        <v>0.07913669064748202</v>
+        <v>0.171991967364791</v>
       </c>
       <c r="X2">
-        <v>0.03883615497884982</v>
+        <v>0.03084704100146465</v>
       </c>
       <c r="Y2">
-        <v>0.0403005356686322</v>
+        <v>0.1411449263633263</v>
       </c>
       <c r="Z2">
-        <v>-2.16593880421849</v>
+        <v>2.992744790759766</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04386181690678533</v>
+        <v>0.03701957132948389</v>
       </c>
       <c r="AC2">
-        <v>-0.04386181690678533</v>
+        <v>-0.03701957132948389</v>
       </c>
       <c r="AD2">
-        <v>617.9060000000001</v>
+        <v>585.6799999999999</v>
       </c>
       <c r="AE2">
-        <v>0.4651949551732217</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>618.3711949551732</v>
+        <v>585.6799999999999</v>
       </c>
       <c r="AG2">
-        <v>-638.3588050448268</v>
+        <v>-1848.65</v>
       </c>
       <c r="AH2">
-        <v>0.3368821632496116</v>
+        <v>0.3110719255568892</v>
       </c>
       <c r="AI2">
-        <v>0.4244806577015009</v>
+        <v>0.3761399542733835</v>
       </c>
       <c r="AJ2">
-        <v>-1.102822001281825</v>
+        <v>3.351736016680265</v>
       </c>
       <c r="AK2">
-        <v>-3.191136731551095</v>
+        <v>2.107324023938444</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>3510.829545454545</v>
-      </c>
-      <c r="AP2">
-        <v>-3627.038665027424</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abbey Mortgage Bank Plc (NGSE:ABBEYBDS)</t>
+          <t>Stanbic IBTC Holdings PLC (NGSE:STANBIC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,7 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0122</v>
+        <v>0.171</v>
+      </c>
+      <c r="E3">
+        <v>0.337</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,100 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001506292834474244</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001506292834474244</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.34</v>
+        <v>217.6</v>
       </c>
       <c r="L3">
-        <v>-0.8170731707317074</v>
+        <v>0.4243369734789392</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>48.7</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.03798159413508033</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.2238051470588235</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>48.7</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.03798159413508033</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.2238051470588235</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>3.38</v>
+        <v>2431.1</v>
       </c>
       <c r="V3">
-        <v>0.2913793103448276</v>
+        <v>1.896038059585088</v>
       </c>
       <c r="W3">
-        <v>-0.07976190476190477</v>
+        <v>0.2745394902851375</v>
       </c>
       <c r="X3">
-        <v>0.03600001787096179</v>
+        <v>0.03102264652923829</v>
       </c>
       <c r="Y3">
-        <v>-0.1157619226328666</v>
+        <v>0.2435168437558992</v>
       </c>
       <c r="Z3">
-        <v>0.1014999187707372</v>
+        <v>3.373684210526315</v>
       </c>
       <c r="AA3">
-        <v>0.0001528886003440793</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03771584545133947</v>
+        <v>0.03614563170671756</v>
       </c>
       <c r="AC3">
-        <v>-0.03756295685099539</v>
+        <v>-0.03614563170671756</v>
       </c>
       <c r="AD3">
-        <v>0.926</v>
+        <v>579.4</v>
       </c>
       <c r="AE3">
-        <v>0.0176483987573112</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9436483987573112</v>
+        <v>579.4</v>
       </c>
       <c r="AG3">
-        <v>-2.436351601242689</v>
+        <v>-1851.7</v>
       </c>
       <c r="AH3">
-        <v>0.07522918123652109</v>
+        <v>0.3112376450365277</v>
       </c>
       <c r="AI3">
-        <v>0.05809337752161042</v>
+        <v>0.3774346948081558</v>
       </c>
       <c r="AJ3">
-        <v>-0.2658713533327058</v>
+        <v>3.251448639157156</v>
       </c>
       <c r="AK3">
-        <v>-0.1893981804942718</v>
+        <v>2.066629464285715</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>154.3333333333333</v>
-      </c>
-      <c r="AP3">
-        <v>-406.0586002071148</v>
       </c>
     </row>
     <row r="4">
@@ -841,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.122</v>
+        <v>0.0809</v>
       </c>
       <c r="E4">
-        <v>0.114</v>
+        <v>0.0872</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,219 +853,88 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3459119496855346</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="M4">
-        <v>0.346</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.021625</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3145454545454545</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.346</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.021625</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3145454545454545</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>1.15</v>
+        <v>3.23</v>
       </c>
       <c r="V4">
-        <v>0.07187499999999999</v>
+        <v>0.2167785234899329</v>
       </c>
       <c r="W4">
-        <v>0.07913669064748202</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="X4">
-        <v>0.03883615497884982</v>
+        <v>0.03067143547369102</v>
       </c>
       <c r="Y4">
-        <v>0.0403005356686322</v>
+        <v>0.03877300897075343</v>
       </c>
       <c r="Z4">
-        <v>0.1860737273259216</v>
+        <v>0.1389847215377033</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04386181690678533</v>
+        <v>0.03789351095225023</v>
       </c>
       <c r="AC4">
-        <v>-0.04386181690678533</v>
+        <v>-0.03789351095225023</v>
       </c>
       <c r="AD4">
-        <v>5.38</v>
+        <v>6.28</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.38</v>
+        <v>6.28</v>
       </c>
       <c r="AG4">
-        <v>4.23</v>
+        <v>3.05</v>
       </c>
       <c r="AH4">
-        <v>0.2516370439663237</v>
+        <v>0.2965061378659112</v>
       </c>
       <c r="AI4">
-        <v>0.2516370439663237</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AJ4">
-        <v>0.2090954028670292</v>
+        <v>0.16991643454039</v>
       </c>
       <c r="AK4">
-        <v>0.2090954028670292</v>
+        <v>0.1626666666666667</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Stanbic IBTC Holdings PLC (NGSE:STANBIC)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.14</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.0001571469908567316</v>
-      </c>
-      <c r="J5">
-        <v>0.0001270271509425247</v>
-      </c>
-      <c r="K5">
-        <v>187.4</v>
-      </c>
-      <c r="L5">
-        <v>0.3658727059742288</v>
-      </c>
-      <c r="M5">
-        <v>73.535</v>
-      </c>
-      <c r="N5">
-        <v>0.06181489576328178</v>
-      </c>
-      <c r="O5">
-        <v>0.3923959445037353</v>
-      </c>
-      <c r="P5">
-        <v>73.535</v>
-      </c>
-      <c r="Q5">
-        <v>0.06181489576328178</v>
-      </c>
-      <c r="R5">
-        <v>0.3923959445037353</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1252.2</v>
-      </c>
-      <c r="V5">
-        <v>1.052622730329523</v>
-      </c>
-      <c r="W5">
-        <v>0.3165005911163655</v>
-      </c>
-      <c r="X5">
-        <v>0.04081942494357102</v>
-      </c>
-      <c r="Y5">
-        <v>0.2756811661727945</v>
-      </c>
-      <c r="Z5">
-        <v>-1.883417463289238</v>
-      </c>
-      <c r="AA5">
-        <v>-0.000239245154397029</v>
-      </c>
-      <c r="AB5">
-        <v>0.04693043015235676</v>
-      </c>
-      <c r="AC5">
-        <v>-0.04716967530675379</v>
-      </c>
-      <c r="AD5">
-        <v>611.6</v>
-      </c>
-      <c r="AE5">
-        <v>0.4475465564159105</v>
-      </c>
-      <c r="AF5">
-        <v>612.0475465564159</v>
-      </c>
-      <c r="AG5">
-        <v>-640.1524534435841</v>
-      </c>
-      <c r="AH5">
-        <v>0.3397154719446957</v>
-      </c>
-      <c r="AI5">
-        <v>0.4312783036841793</v>
-      </c>
-      <c r="AJ5">
-        <v>-1.165083832761923</v>
-      </c>
-      <c r="AK5">
-        <v>-3.834452596925467</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>3597.647058823529</v>
-      </c>
-      <c r="AP5">
-        <v>-3765.602667315201</v>
       </c>
     </row>
   </sheetData>
